--- a/data/2013_data.xlsx
+++ b/data/2013_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00zh0\OneDrive\CAU\2020-1\자연어처리 및 정보검색\과제\Information-Retrieval\Team project\Sentiment-Analysis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_C9925FC8C3696FF990160B03F399E70F512F82FF" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9B804090-ABEE-4017-ADFE-F70289496CDE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="284">
   <si>
     <t>title</t>
   </si>
@@ -25,10 +31,562 @@
     <t>lyric</t>
   </si>
   <si>
+    <t>duration</t>
+  </si>
+  <si>
     <t>Blurred Lines</t>
   </si>
   <si>
+    <t>Radioactive</t>
+  </si>
+  <si>
+    <t>Harlem Shake</t>
+  </si>
+  <si>
+    <t>Can't Hold Us</t>
+  </si>
+  <si>
+    <t>Mirrors</t>
+  </si>
+  <si>
+    <t>Just Give Me A Reason</t>
+  </si>
+  <si>
+    <t>When I Was Your Man</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Roar</t>
+  </si>
+  <si>
+    <t>Locked Out Of Heaven</t>
+  </si>
+  <si>
+    <t>Ho Hey</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Get Lucky</t>
+  </si>
+  <si>
+    <t>Royals</t>
+  </si>
+  <si>
+    <t>I Knew You Were Trouble.</t>
+  </si>
+  <si>
+    <t>We Can't Stop</t>
+  </si>
+  <si>
+    <t>Wrecking Ball</t>
+  </si>
+  <si>
+    <t>Wake Me Up!</t>
+  </si>
+  <si>
+    <t>Suit &amp; Tie</t>
+  </si>
+  <si>
+    <t>Cups (Pitch Perfect's When I'm Gone)</t>
+  </si>
+  <si>
+    <t>Holy Grail</t>
+  </si>
+  <si>
+    <t>Scream &amp; Shout</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>Sail</t>
+  </si>
+  <si>
+    <t>Don't You Worry Child</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
+    <t>I Love It</t>
+  </si>
+  <si>
+    <t>Safe And Sound</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>The Way</t>
+  </si>
+  <si>
+    <t>Started From The Bottom</t>
+  </si>
+  <si>
+    <t>Come &amp; Get It</t>
+  </si>
+  <si>
+    <t>Hold On, We're Going Home</t>
+  </si>
+  <si>
+    <t>Daylight</t>
+  </si>
+  <si>
+    <t>Feel This Moment</t>
+  </si>
+  <si>
+    <t>Applause</t>
+  </si>
+  <si>
+    <t>One More Night</t>
+  </si>
+  <si>
+    <t>Love Me</t>
+  </si>
+  <si>
+    <t>My Songs Know What You Did In The Dark (Light Em Up)</t>
+  </si>
+  <si>
+    <t>F**kin Problems</t>
+  </si>
+  <si>
+    <t>Beauty And A Beat</t>
+  </si>
+  <si>
+    <t>Same Love</t>
+  </si>
+  <si>
+    <t>Sweet Nothing</t>
+  </si>
+  <si>
+    <t>Summertime Sadness</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>It's Time</t>
+  </si>
+  <si>
+    <t>Power Trip</t>
+  </si>
+  <si>
+    <t>Girl On Fire</t>
+  </si>
+  <si>
+    <t>Heart Attack</t>
+  </si>
+  <si>
+    <t>Love Somebody</t>
+  </si>
+  <si>
+    <t>I Will Wait</t>
+  </si>
+  <si>
+    <t>Try</t>
+  </si>
+  <si>
+    <t>Wagon Wheel</t>
+  </si>
+  <si>
+    <t>Gangnam Style</t>
+  </si>
+  <si>
+    <t>I Need Your Love</t>
+  </si>
+  <si>
+    <t>Die Young</t>
+  </si>
+  <si>
+    <t>Some Nights</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Boys 'round Here</t>
+  </si>
+  <si>
+    <t>Gone, Gone, Gone</t>
+  </si>
+  <si>
+    <t>Demons</t>
+  </si>
+  <si>
+    <t>Counting Stars</t>
+  </si>
+  <si>
+    <t>I Cry</t>
+  </si>
+  <si>
+    <t>Little Talks</t>
+  </si>
+  <si>
+    <t>The Other Side</t>
+  </si>
+  <si>
+    <t>Berzerk</t>
+  </si>
+  <si>
+    <t>Catch My Breath</t>
+  </si>
+  <si>
+    <t>Crash My Party</t>
+  </si>
+  <si>
+    <t>Pour It Up</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>I Want Crazy</t>
+  </si>
+  <si>
+    <t>The Fox</t>
+  </si>
+  <si>
+    <t>Best Song Ever</t>
+  </si>
+  <si>
+    <t>The A Team</t>
+  </si>
+  <si>
+    <t>Carry On</t>
+  </si>
+  <si>
+    <t>Highway Don't Care</t>
+  </si>
+  <si>
+    <t>That's My Kind Of Night</t>
+  </si>
+  <si>
+    <t>Swimming Pools (Drank)</t>
+  </si>
+  <si>
+    <t>Sure Be Cool If You Did</t>
+  </si>
+  <si>
+    <t>#Beautiful</t>
+  </si>
+  <si>
+    <t>Troublemaker</t>
+  </si>
+  <si>
+    <t>Body Party</t>
+  </si>
+  <si>
+    <t>Adorn</t>
+  </si>
+  <si>
+    <t>Hall Of Fame</t>
+  </si>
+  <si>
+    <t>Let Me Love You (Until You Learn To Love Yourself)</t>
+  </si>
+  <si>
+    <t>U.O.E.N.O.</t>
+  </si>
+  <si>
+    <t>Next To Me</t>
+  </si>
+  <si>
+    <t>Mama's Broken Heart</t>
+  </si>
+  <si>
+    <t>It Goes Like This</t>
+  </si>
+  <si>
+    <t>Bugatti</t>
+  </si>
+  <si>
+    <t>Wanted</t>
+  </si>
+  <si>
+    <t>Downtown</t>
+  </si>
+  <si>
+    <t>Get Your Shine On</t>
+  </si>
+  <si>
+    <t>#thatPOWER</t>
+  </si>
+  <si>
+    <t>Brave</t>
+  </si>
+  <si>
+    <t>Let Her Go</t>
+  </si>
+  <si>
+    <t>Runnin' Outta Moonlight</t>
+  </si>
+  <si>
+    <t>I'm Different</t>
+  </si>
+  <si>
+    <t>Still Into You</t>
+  </si>
+  <si>
     <t>Robin Thicke Featuring T.I. + Pharrell</t>
+  </si>
+  <si>
+    <t>Imagine Dragons</t>
+  </si>
+  <si>
+    <t>Baauer</t>
+  </si>
+  <si>
+    <t>Macklemore &amp; Ryan Lewis Featuring Ray Dalton</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>P!nk Featuring Nate Ruess</t>
+  </si>
+  <si>
+    <t>Bruno Mars</t>
+  </si>
+  <si>
+    <t>Florida Georgia Line Featuring Nelly</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>The Lumineers</t>
+  </si>
+  <si>
+    <t>Rihanna Featuring Mikky Ekko</t>
+  </si>
+  <si>
+    <t>Daft Punk Featuring Pharrell Williams</t>
+  </si>
+  <si>
+    <t>Lorde</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>Miley Cyrus</t>
+  </si>
+  <si>
+    <t>Avicii</t>
+  </si>
+  <si>
+    <t>Justin Timberlake Featuring JAY Z</t>
+  </si>
+  <si>
+    <t>Anna Kendrick</t>
+  </si>
+  <si>
+    <t>Jay Z Featuring Justin Timberlake</t>
+  </si>
+  <si>
+    <t>will.i.am &amp; Britney Spears</t>
+  </si>
+  <si>
+    <t>Zedd Featuring Foxes</t>
+  </si>
+  <si>
+    <t>AWOLNATION</t>
+  </si>
+  <si>
+    <t>Swedish House Mafia Featuring John Martin</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Icona Pop Featuring Charli XCX</t>
+  </si>
+  <si>
+    <t>Capital Cities</t>
+  </si>
+  <si>
+    <t>Ariana Grande Featuring Mac Miller</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Drake Featuring Majid Jordan</t>
+  </si>
+  <si>
+    <t>Maroon 5</t>
+  </si>
+  <si>
+    <t>Pitbull Featuring Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Lady Gaga</t>
+  </si>
+  <si>
+    <t>Lil Wayne Featuring Drake &amp; Future</t>
+  </si>
+  <si>
+    <t>Fall Out Boy</t>
+  </si>
+  <si>
+    <t>A$AP Rocky Featuring Drake, 2 Chainz &amp; Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>Justin Bieber Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Macklemore &amp; Ryan Lewis Featuring Mary Lambert</t>
+  </si>
+  <si>
+    <t>Calvin Harris Featuring Florence Welch</t>
+  </si>
+  <si>
+    <t>Lana Del Rey &amp; Cedric Gervais</t>
+  </si>
+  <si>
+    <t>Phillip Phillips</t>
+  </si>
+  <si>
+    <t>J. Cole Featuring Miguel</t>
+  </si>
+  <si>
+    <t>Alicia Keys Featuring Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Demi Lovato</t>
+  </si>
+  <si>
+    <t>Mumford &amp; Sons</t>
+  </si>
+  <si>
+    <t>P!nk</t>
+  </si>
+  <si>
+    <t>Darius Rucker</t>
+  </si>
+  <si>
+    <t>PSY</t>
+  </si>
+  <si>
+    <t>Calvin Harris Featuring Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Ke$ha</t>
+  </si>
+  <si>
+    <t>fun.</t>
+  </si>
+  <si>
+    <t>Wale Featuring Tiara Thomas Or Rihanna</t>
+  </si>
+  <si>
+    <t>Blake Shelton Featuring Pistol Annies &amp; Friends</t>
+  </si>
+  <si>
+    <t>OneRepublic</t>
+  </si>
+  <si>
+    <t>Flo Rida</t>
+  </si>
+  <si>
+    <t>Of Monsters And Men</t>
+  </si>
+  <si>
+    <t>Jason Derulo</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Kelly Clarkson</t>
+  </si>
+  <si>
+    <t>Luke Bryan</t>
+  </si>
+  <si>
+    <t>Hunter Hayes</t>
+  </si>
+  <si>
+    <t>Ylvis</t>
+  </si>
+  <si>
+    <t>One Direction</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Tim McGraw With Taylor Swift</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>Blake Shelton</t>
+  </si>
+  <si>
+    <t>Mariah Carey Featuring Miguel</t>
+  </si>
+  <si>
+    <t>Olly Murs Featuring Flo Rida</t>
+  </si>
+  <si>
+    <t>Ciara</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>The Script Featuring will.i.am</t>
+  </si>
+  <si>
+    <t>Ne-Yo</t>
+  </si>
+  <si>
+    <t>Rocko Featuring Future &amp; Rick Ross</t>
+  </si>
+  <si>
+    <t>Emeli Sande</t>
+  </si>
+  <si>
+    <t>Miranda Lambert</t>
+  </si>
+  <si>
+    <t>Thomas Rhett</t>
+  </si>
+  <si>
+    <t>Ace Hood Featuring Future &amp; Rick Ross</t>
+  </si>
+  <si>
+    <t>Lady Antebellum</t>
+  </si>
+  <si>
+    <t>Florida Georgia Line</t>
+  </si>
+  <si>
+    <t>will.i.am Featuring Justin Bieber</t>
+  </si>
+  <si>
+    <t>Sara Bareilles</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Randy Houser</t>
+  </si>
+  <si>
+    <t>2 Chainz</t>
+  </si>
+  <si>
+    <t>Paramore</t>
   </si>
   <si>
     <t>Everybody, get up
@@ -147,12 +705,6 @@
 Hey, hey, hey</t>
   </si>
   <si>
-    <t>Radioactive</t>
-  </si>
-  <si>
-    <t>Imagine Dragons</t>
-  </si>
-  <si>
     <t>I'm waking up to ash and dust
 I wipe my brow, and I sweat my rust
 I'm breathing in the chemicalsI'm breaking in and shaping up
@@ -204,18 +756,6 @@
 Whoa-oh-oh-oh, oh
 Whoa-oh-oh-oh, I'm
 Radioactive, radioactive</t>
-  </si>
-  <si>
-    <t>Harlem Shake</t>
-  </si>
-  <si>
-    <t>Baauer</t>
-  </si>
-  <si>
-    <t>Can't Hold Us</t>
-  </si>
-  <si>
-    <t>Macklemore &amp; Ryan Lewis Featuring Ray Dalton</t>
   </si>
   <si>
     <t>Ay, ay, ay
@@ -304,12 +844,6 @@
 Like the ceiling can't hold us</t>
   </si>
   <si>
-    <t>Mirrors</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
     <t>Aren't you something to admire
 'Cause your shine is something like a mirror
 And I can't help but notice, you reflect in this heart of mineIf you ever feel alone and the glare makes me hard to find
@@ -387,12 +921,6 @@
 Yeah</t>
   </si>
   <si>
-    <t>Just Give Me A Reason</t>
-  </si>
-  <si>
-    <t>P!nk Featuring Nate Ruess</t>
-  </si>
-  <si>
     <t>Right from the start
 You were a thief, you stole my heart
 And I your willing victimI let you see the parts of me
@@ -461,12 +989,6 @@
 And we can learn to love again</t>
   </si>
   <si>
-    <t>When I Was Your Man</t>
-  </si>
-  <si>
-    <t>Bruno Mars</t>
-  </si>
-  <si>
     <t>Same bed but it feels just a little bit bigger now
 Our song on the radio but it don't sound the same
 When our friends talk about youAll it does is just tear me down
@@ -512,18 +1034,6 @@
 When i was your man
 Do all the things I should have done
 When i was your man</t>
-  </si>
-  <si>
-    <t>Cruise</t>
-  </si>
-  <si>
-    <t>Florida Georgia Line Featuring Nelly</t>
-  </si>
-  <si>
-    <t>Roar</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
   </si>
   <si>
     <t>I used to bite my tongue and hold my breath
@@ -584,9 +1094,6 @@
 You're gonna hear me roar</t>
   </si>
   <si>
-    <t>Locked Out Of Heaven</t>
-  </si>
-  <si>
     <t>One, two, one, two, three
 Oh yeah yeahOh yeah yeah yeah yeah, uh!
 Oh yeah yeah
@@ -638,12 +1145,6 @@
 Oh yeah yeah yeah yeah, uh!</t>
   </si>
   <si>
-    <t>Ho Hey</t>
-  </si>
-  <si>
-    <t>The Lumineers</t>
-  </si>
-  <si>
     <t>Ho! Hey!
 Ho! Hey!Ho! I've been trying to do it right
 Hey! I've been living a lonely life
@@ -681,12 +1182,6 @@
 Hey!</t>
   </si>
   <si>
-    <t>Stay</t>
-  </si>
-  <si>
-    <t>Rihanna Featuring Mikky Ekko</t>
-  </si>
-  <si>
     <t>All along it was a fever
 A cold sweat, hot-headed believer
 I threw my hands in the air, I said show me somethingHe said, "If you're there come a little closer"
@@ -718,12 +1213,6 @@
 Stay...
 I want you to stay
 Ooh...</t>
-  </si>
-  <si>
-    <t>Get Lucky</t>
-  </si>
-  <si>
-    <t>Daft Punk Featuring Pharrell Williams</t>
   </si>
   <si>
     <t>Like the legend of the phoenix
@@ -804,12 +1293,6 @@
 We're up all night to get lucky</t>
   </si>
   <si>
-    <t>Royals</t>
-  </si>
-  <si>
-    <t>Lorde</t>
-  </si>
-  <si>
     <t>I've never seen a diamond in the flesh
 I cut my teeth on wedding rings in the movies
 And I'm not proud of my addressIn the torn-up town, no post code envy
@@ -859,12 +1342,6 @@
 You can call me Queen Bee
 And baby I'll rule, I'll rule, I'll rule, I'll rule
 Let me live that fantasy</t>
-  </si>
-  <si>
-    <t>I Knew You Were Trouble.</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
   </si>
   <si>
     <t>Once upon time, a few mistakes ago
@@ -921,12 +1398,6 @@
 Trouble, trouble, trouble
 I Knew You Were Trouble when you walked in
 Trouble, trouble, trouble</t>
-  </si>
-  <si>
-    <t>We Can't Stop</t>
-  </si>
-  <si>
-    <t>Miley Cyrus</t>
   </si>
   <si>
     <t>It's our party, we can do what we want
@@ -1007,9 +1478,6 @@
 Eeh</t>
   </si>
   <si>
-    <t>Wrecking Ball</t>
-  </si>
-  <si>
     <t>We clawed, we chained our hearts in vain
 We jumped, never asking why
 We kissed, I fell under your spellA love no one could deny
@@ -1060,12 +1528,6 @@
 Yeah you, you wreck me</t>
   </si>
   <si>
-    <t>Wake Me Up!</t>
-  </si>
-  <si>
-    <t>Avicii</t>
-  </si>
-  <si>
     <t>Feeling my way through the darkness
 Guided by a beating heart
 I can't tell where the journey will endBut I know where to start
@@ -1101,12 +1563,6 @@
 I didn't know I was lost
 I didn't know I was lost
 I didn't know, I didn't know, I didn't know</t>
-  </si>
-  <si>
-    <t>Suit &amp; Tie</t>
-  </si>
-  <si>
-    <t>Justin Timberlake Featuring JAY Z</t>
   </si>
   <si>
     <t>I be on my suit and tie shit, tie shit, tie
@@ -1203,12 +1659,6 @@
 Oh...</t>
   </si>
   <si>
-    <t>Cups (Pitch Perfect's When I'm Gone)</t>
-  </si>
-  <si>
-    <t>Anna Kendrick</t>
-  </si>
-  <si>
     <t>I've got my ticket for the long way 'round
 Two bottle whiskey for the way
 And I sure would like some sweet companyAnd I'm leaving tomorrow, wha-do-ya say?
@@ -1247,12 +1697,6 @@
 You're gonna miss me by my walk
 You're gonna miss me by my talk, oh
 You're gonna miss me when I'm gone</t>
-  </si>
-  <si>
-    <t>Holy Grail</t>
-  </si>
-  <si>
-    <t>Jay Z Featuring Justin Timberlake</t>
   </si>
   <si>
     <t>You take the clothes off my back, and I let you
@@ -1352,12 +1796,6 @@
 (Don't know why)</t>
   </si>
   <si>
-    <t>Scream &amp; Shout</t>
-  </si>
-  <si>
-    <t>will.i.am &amp; Britney Spears</t>
-  </si>
-  <si>
     <t>Bring the action
 When you hear this in the clubYou're gonna turn this shit up
 You're gonna turn this shit up
@@ -1451,12 +1889,6 @@
 You are now-now rockin' with will.i.am and (Britney, bitch)</t>
   </si>
   <si>
-    <t>Clarity</t>
-  </si>
-  <si>
-    <t>Zedd Featuring Foxes</t>
-  </si>
-  <si>
     <t>High dive into frozen waves
 Where the past comes back to life
 Fight fear for the selfish painIt was worth it every time
@@ -1494,12 +1926,6 @@
 If our love's insanity, why are you my clarity?</t>
   </si>
   <si>
-    <t>Sail</t>
-  </si>
-  <si>
-    <t>AWOLNATION</t>
-  </si>
-  <si>
     <t>SAIL!
 This is how I show my love.
 I made it in my mind becauseI blame it on my ADD baby.
@@ -1532,12 +1958,6 @@
 SAIL!
 SAIL!
 SAIL!</t>
-  </si>
-  <si>
-    <t>Don't You Worry Child</t>
-  </si>
-  <si>
-    <t>Swedish House Mafia Featuring John Martin</t>
   </si>
   <si>
     <t>There was a time
@@ -1583,12 +2003,6 @@
 Don't you worry, don't you worry now."
 Yeah!
 Oh, oh, oh, oh, oh, oh, oh! Yeah!</t>
-  </si>
-  <si>
-    <t>Diamonds</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
   </si>
   <si>
     <t>Shine bright like a diamond
@@ -1654,12 +2068,6 @@
 Shine bright like a diamond</t>
   </si>
   <si>
-    <t>I Love It</t>
-  </si>
-  <si>
-    <t>Icona Pop Featuring Charli XCX</t>
-  </si>
-  <si>
     <t>I got this feeling on the summer day when you were gone,
 I crashed my car into the bridge, I watched, I let it burn,
 I threw your shit into a bag and pushed it down the stairs,I crashed my car into the bridge.
@@ -1718,12 +2126,6 @@
 I love it.</t>
   </si>
   <si>
-    <t>Safe And Sound</t>
-  </si>
-  <si>
-    <t>Capital Cities</t>
-  </si>
-  <si>
     <t>I could lift you up
 I could show you what you wanna see
 And take you where you wanna beYou could be my luck
@@ -1780,9 +2182,6 @@
 We're safe and sound</t>
   </si>
   <si>
-    <t>Treasure</t>
-  </si>
-  <si>
     <t>Give me your, give me your, give me your attention baby (Attention baby)
 I got to tell you a little something about yourself (Self)
 You're wonderful, flawless, ooh, you're a sexy lady (Sexy lady)But you walk around here like you wanna be someone else (Else)
@@ -1817,12 +2216,6 @@
 You know you can make my wish come true
 If you let me treasure you
 If you let me treasure, oh</t>
-  </si>
-  <si>
-    <t>The Way</t>
-  </si>
-  <si>
-    <t>Ariana Grande Featuring Mac Miller</t>
   </si>
   <si>
     <t>What we gotta do right here is go back, back to the top
@@ -1902,12 +2295,6 @@
 The way I love you</t>
   </si>
   <si>
-    <t>Started From The Bottom</t>
-  </si>
-  <si>
-    <t>Drake</t>
-  </si>
-  <si>
     <t>Started
 (Zombie on the track)Started from the bottom now we're here
 Started from the bottom now my whole team fuckin' here
@@ -1961,12 +2348,6 @@
 Started from the bottom now my whole team here, nigga
 Started from the bottom now we're here
 Started from the bottom now the whole team here, nigga</t>
-  </si>
-  <si>
-    <t>Come &amp; Get It</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
   </si>
   <si>
     <t>When you're ready come and get it
@@ -2025,12 +2406,6 @@
 Na-na-na-na, na-na-na-na, na-na-na-na</t>
   </si>
   <si>
-    <t>Hold On, We're Going Home</t>
-  </si>
-  <si>
-    <t>Drake Featuring Majid Jordan</t>
-  </si>
-  <si>
     <t>I got my eyes on you
 You're everything that I see
 I want your hot love and emotion endlesslyI can't get over you
@@ -2086,12 +2461,6 @@
 (Goin' home)</t>
   </si>
   <si>
-    <t>Daylight</t>
-  </si>
-  <si>
-    <t>Maroon 5</t>
-  </si>
-  <si>
     <t>Here I am waiting
 I'll have to leave soon
 Why am I holding on?We knew this day would come
@@ -2137,12 +2506,6 @@
 Oh-woah, oh-woah, oh-woah-oh-oh-oh-oh-oh
 Oh-woah (yeah), oh-woah (yeah), oh-woah (yeah), oh-oh-oh-oh-oh-oh (yeah)
 Oh-woah (yeah), oh-woah (yeah), oh-woah-oh-oh-oh-oh-oh-oh</t>
-  </si>
-  <si>
-    <t>Feel This Moment</t>
-  </si>
-  <si>
-    <t>Pitbull Featuring Christina Aguilera</t>
   </si>
   <si>
     <t>Ask for money, and get advice
@@ -2207,12 +2570,6 @@
 Whoa-oh, I just wanna feel this moment</t>
   </si>
   <si>
-    <t>Applause</t>
-  </si>
-  <si>
-    <t>Lady Gaga</t>
-  </si>
-  <si>
     <t>I stand here waiting for you to bang the gong
 To crash the critic saying, "Is it right or is it wrong?"
 If only fame had an I.V, baby could I bear?Being away from you, I found the vein, put it in here
@@ -2261,9 +2618,6 @@
 (A-P-P-L-A-U-S-E) Make it real loud
 Put your hands up, make 'em touch, touch
 (A-R-T-P-O-P)</t>
-  </si>
-  <si>
-    <t>One More Night</t>
   </si>
   <si>
     <t>Ooh, ooh ooh ooh, ooh ooh, ooh ooh
@@ -2323,12 +2677,6 @@
 And I know, I've said it a million times (yeah, yeah)
 But I'll only stay with you one more night (yeah, yeah)
 (I don't know, whatever)</t>
-  </si>
-  <si>
-    <t>Love Me</t>
-  </si>
-  <si>
-    <t>Lil Wayne Featuring Drake &amp; Future</t>
   </si>
   <si>
     <t>I'm on that good kush and alcohol
@@ -2413,12 +2761,6 @@
 Long as these bitches love me</t>
   </si>
   <si>
-    <t>My Songs Know What You Did In The Dark (Light Em Up)</t>
-  </si>
-  <si>
-    <t>Fall Out Boy</t>
-  </si>
-  <si>
     <t>Oh-woah, oh-oh-oh-oh, oh-oh-oh-oh-oh
 Oh-woah, oh-oh-oh-oh, oh-oh-oh-oh-ohB-b-be careful making wishes in the dark, dark
 Can't be sure when they've hit their mark, mark
@@ -2478,12 +2820,6 @@
 Oh-woah, oh-oh-oh-oh, oh-oh-oh-oh-oh
 I-In the dark, dark
 Oh-woah, oh-oh-oh-oh, oh-oh-oh-oh-oh</t>
-  </si>
-  <si>
-    <t>F**kin Problems</t>
-  </si>
-  <si>
-    <t>A$AP Rocky Featuring Drake, 2 Chainz &amp; Kendrick Lamar</t>
   </si>
   <si>
     <t>I love bad bitches that's my fuckin problem
@@ -2572,12 +2908,6 @@
 Bring ya girls to the crib maybe we can solve it</t>
   </si>
   <si>
-    <t>Beauty And A Beat</t>
-  </si>
-  <si>
-    <t>Justin Bieber Featuring Nicki Minaj</t>
-  </si>
-  <si>
     <t>Yeah.
 Young Money.
 Nicki MinajJustin.
@@ -2627,12 +2957,6 @@
 Bout you, when the music makes you move
 Baby do it like you do
 Cause...</t>
-  </si>
-  <si>
-    <t>Same Love</t>
-  </si>
-  <si>
-    <t>Macklemore &amp; Ryan Lewis Featuring Mary Lambert</t>
   </si>
   <si>
     <t>When I was in the third grade, I thought that I was gay
@@ -2723,12 +3047,6 @@
 Love is kind</t>
   </si>
   <si>
-    <t>Sweet Nothing</t>
-  </si>
-  <si>
-    <t>Calvin Harris Featuring Florence Welch</t>
-  </si>
-  <si>
     <t>You took my heart, and you held it in your mouth
 And with a word all my love came rushing out
 And every whisper, it's the worst, emptied out by a single wordThere is a hollow in me now (Me now)
@@ -2762,12 +3080,6 @@
 Oh-woah, sweet nothing
 Oh-woah, oh-woah
 Oh-woah, sweet nothing</t>
-  </si>
-  <si>
-    <t>Summertime Sadness</t>
-  </si>
-  <si>
-    <t>Lana Del Rey &amp; Cedric Gervais</t>
   </si>
   <si>
     <t>I got my red dress on tonight
@@ -2822,12 +3134,6 @@
 Oh oh-oh oh</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Phillip Phillips</t>
-  </si>
-  <si>
     <t>Hold on, to me as we go
 As we roll down this unfamiliar road
 And although this wave is stringing us alongJust know you're not alone
@@ -2846,9 +3152,6 @@
 If you get lost, you can always be found
 Just know you're not alone
 Cause I'm gonna make this place your home</t>
-  </si>
-  <si>
-    <t>It's Time</t>
   </si>
   <si>
     <t>So, this is what you meant?
@@ -2898,12 +3201,6 @@
 I'm just the same as I was
 Now don't you understand
 That I'm never changing who I am</t>
-  </si>
-  <si>
-    <t>Power Trip</t>
-  </si>
-  <si>
-    <t>J. Cole Featuring Miguel</t>
   </si>
   <si>
     <t>Got me up all night, all I'm singin' is love songs
@@ -2975,12 +3272,6 @@
 She got me open all night, got me open all night</t>
   </si>
   <si>
-    <t>Girl On Fire</t>
-  </si>
-  <si>
-    <t>Alicia Keys Featuring Nicki Minaj</t>
-  </si>
-  <si>
     <t>Spirit of Marilyn calling me, audibly, bawling, she
 Said that she would never leave, continued to torture me
 Telling me to come with her, underneath my comforterAnd she brought a gun with her, pills and some rum with her
@@ -3035,12 +3326,6 @@
 She's just a girl, but she's on fire</t>
   </si>
   <si>
-    <t>Heart Attack</t>
-  </si>
-  <si>
-    <t>Demi Lovato</t>
-  </si>
-  <si>
     <t>Putting my defenses up
 'Cause I don't wanna fall in love
 If I ever did that, I think I'd have a heart attackNever put my love out on the line
@@ -3090,9 +3375,6 @@
 I think I'd have a heart attack
 I think I'd have a heart attack
 I think I'd have a heart attack</t>
-  </si>
-  <si>
-    <t>Love Somebody</t>
   </si>
   <si>
     <t>I know your inside, you're feeling so hollow
@@ -3165,12 +3447,6 @@
 Yeah</t>
   </si>
   <si>
-    <t>I Will Wait</t>
-  </si>
-  <si>
-    <t>Mumford &amp; Sons</t>
-  </si>
-  <si>
     <t>Well I came home
 Like a stone
 And I fell heavy into your armsThese days of dust
@@ -3210,12 +3486,6 @@
 And I will wait, I will wait for you
 And I will wait, I will wait for you
 And I will wait, I will wait for you</t>
-  </si>
-  <si>
-    <t>Try</t>
-  </si>
-  <si>
-    <t>P!nk</t>
   </si>
   <si>
     <t>Woh-oh-oh
@@ -3258,12 +3528,6 @@
 Gotta get up and try, try, try
 You've gotta get up and try, try, try
 Gotta get up and try, try, try</t>
-  </si>
-  <si>
-    <t>Wagon Wheel</t>
-  </si>
-  <si>
-    <t>Darius Rucker</t>
   </si>
   <si>
     <t>Headin' down south to the land of the pines
@@ -3308,12 +3572,6 @@
 Rock me mama like the wind and the rain
 Rock me mama like a southbound train
 Hey... mama rock me</t>
-  </si>
-  <si>
-    <t>Gangnam Style</t>
-  </si>
-  <si>
-    <t>PSY</t>
   </si>
   <si>
     <t>오빤 강남스타일
@@ -3377,12 +3635,6 @@
 오빤 강남스타일</t>
   </si>
   <si>
-    <t>I Need Your Love</t>
-  </si>
-  <si>
-    <t>Calvin Harris Featuring Ellie Goulding</t>
-  </si>
-  <si>
     <t>I need your love
 I need your time
 When everything's wrongYou make it right
@@ -3444,12 +3696,6 @@
 I need to be free</t>
   </si>
   <si>
-    <t>Die Young</t>
-  </si>
-  <si>
-    <t>Ke$ha</t>
-  </si>
-  <si>
     <t>I hear your heart beat to the beat of the drums
 Oh, what a shame that you came here with someone
 So while you're here in my armsLet's make the most of the night like we're gonna die young
@@ -3496,12 +3742,6 @@
 We're gonna die young
 We're gonna die young
 Let's make the most of the night like we're gonna die young</t>
-  </si>
-  <si>
-    <t>Some Nights</t>
-  </si>
-  <si>
-    <t>fun.</t>
   </si>
   <si>
     <t>Some nights, I stay up cashing in my bad luck
@@ -3565,21 +3805,6 @@
 It's for the best we get our distance, oh-oh
 It's for the best you didn't listen
 It's for the best we get our distance, oh-oh, oh-oh</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Wale Featuring Tiara Thomas Or Rihanna</t>
-  </si>
-  <si>
-    <t>Boys 'round Here</t>
-  </si>
-  <si>
-    <t>Blake Shelton Featuring Pistol Annies &amp; Friends</t>
-  </si>
-  <si>
-    <t>Gone, Gone, Gone</t>
   </si>
   <si>
     <t>When life leaves you high and dry
@@ -3648,9 +3873,6 @@
 I'll love you long after you're gone, gone, gone</t>
   </si>
   <si>
-    <t>Demons</t>
-  </si>
-  <si>
     <t>When the days are cold and the cards all fold
 And the saints we see are all made of gold
 When your dreams all fail and the ones we hailAre the worst of all and the blood's run stale
@@ -3682,12 +3904,6 @@
 It's where my demons hide, it's where my demons hide
 Don't get too close, it's dark inside
 It's where my demons hide, it's where my demons hide</t>
-  </si>
-  <si>
-    <t>Counting Stars</t>
-  </si>
-  <si>
-    <t>OneRepublic</t>
   </si>
   <si>
     <t>Lately, I've been, I've been losing sleep
@@ -3770,12 +3986,6 @@
 Sink in the river the lessons I've learned
 Take that money, watch it burn
 Sink in the river the lessons I've learned</t>
-  </si>
-  <si>
-    <t>I Cry</t>
-  </si>
-  <si>
-    <t>Flo Rida</t>
   </si>
   <si>
     <t>Shawty who that who that you think always missing you
@@ -3898,18 +4108,6 @@
 I'm missing you</t>
   </si>
   <si>
-    <t>Little Talks</t>
-  </si>
-  <si>
-    <t>Of Monsters And Men</t>
-  </si>
-  <si>
-    <t>The Other Side</t>
-  </si>
-  <si>
-    <t>Jason Derulo</t>
-  </si>
-  <si>
     <t>In the beginning
 I never thought it would be you
 When we were chillinSmiling in the photo booth
@@ -3978,12 +4176,6 @@
 Kiss me like it's do or die
 (Woah)
 And take me to the other side</t>
-  </si>
-  <si>
-    <t>Berzerk</t>
-  </si>
-  <si>
-    <t>Eminem</t>
   </si>
   <si>
     <t>Now this shit's about to kick off, this party looks wack
@@ -4087,12 +4279,6 @@
 So everybody, everybody (go berzerk), move your body</t>
   </si>
   <si>
-    <t>Catch My Breath</t>
-  </si>
-  <si>
-    <t>Kelly Clarkson</t>
-  </si>
-  <si>
     <t>I don't wanna be left behind
 Distance was a friend of mine
 Catching breath in a web of liesI've spent most of my life
@@ -4149,12 +4335,6 @@
 Won't let them get me down, it's all so simple now</t>
   </si>
   <si>
-    <t>Crash My Party</t>
-  </si>
-  <si>
-    <t>Luke Bryan</t>
-  </si>
-  <si>
     <t>It don't matter what plans I got, I can break 'em
 Yeah I can turn this thing around at the next red light
 And I don't mind tellin' all the guys I can't meet 'emHell, we can all go raise some hell on any other night
@@ -4194,9 +4374,6 @@
 The door's unlocked, I'll leave on the lights
 Baby you can crash my party anytime
 Baby you can crash my party anytime</t>
-  </si>
-  <si>
-    <t>Pour It Up</t>
   </si>
   <si>
     <t>Throw it, throw it up
@@ -4278,9 +4455,6 @@
 That's how we ball out</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>It feels like a perfect night
 To dress up like hipsters
 And make fun of our exesAh-ah, ah-ah
@@ -4352,12 +4526,6 @@
 I gotta have you</t>
   </si>
   <si>
-    <t>I Want Crazy</t>
-  </si>
-  <si>
-    <t>Hunter Hayes</t>
-  </si>
-  <si>
     <t>I'm booking myself a one way flight
 I gotta see the color in your eyesYeah, telling myself I'm gonna be alright
 Without you baby it's a waste of time
@@ -4423,12 +4591,6 @@
 I know that we're crazy
 So let's be crazy
 Yeah, yeah</t>
-  </si>
-  <si>
-    <t>The Fox</t>
-  </si>
-  <si>
-    <t>Ylvis</t>
   </si>
   <si>
     <t>Dog goes woof
@@ -4513,12 +4675,6 @@
 Abay-ba-da bum-bum bay-dum</t>
   </si>
   <si>
-    <t>Best Song Ever</t>
-  </si>
-  <si>
-    <t>One Direction</t>
-  </si>
-  <si>
     <t>Maybe it's the way she walked (Wow)
 Straight into my heart and stole it
 Through the doors and past the guards (Wow)Just like she already owned it
@@ -4564,12 +4720,6 @@
 Best song ever
 It was the best song ever
 It was the best song ever</t>
-  </si>
-  <si>
-    <t>The A Team</t>
-  </si>
-  <si>
-    <t>Ed Sheeran</t>
   </si>
   <si>
     <t>White lips, pale face
@@ -4644,9 +4794,6 @@
 For angels to die</t>
   </si>
   <si>
-    <t>Carry On</t>
-  </si>
-  <si>
     <t>Well, I woke up to the sound of silence
 The guns were cutting like knives in a fist fight
 And I found you with a bottle of wineYour head in the curtains and heart like the Fourth of July
@@ -4695,15 +4842,6 @@
 No one's ever gonna stop us now</t>
   </si>
   <si>
-    <t>Highway Don't Care</t>
-  </si>
-  <si>
-    <t>Tim McGraw With Taylor Swift</t>
-  </si>
-  <si>
-    <t>That's My Kind Of Night</t>
-  </si>
-  <si>
     <t>Uh uh
 I got that real good feel good stuff
 Up under the seat of my big black jacked up truckRollin' on 35s
@@ -4746,12 +4884,6 @@
 That's my kind of night!
 Yeah, that's my kind of night!
 Come on</t>
-  </si>
-  <si>
-    <t>Swimming Pools (Drank)</t>
-  </si>
-  <si>
-    <t>Kendrick Lamar</t>
   </si>
   <si>
     <t>Pour up (drank)
@@ -4841,12 +4973,6 @@
 Faded (drank)</t>
   </si>
   <si>
-    <t>Sure Be Cool If You Did</t>
-  </si>
-  <si>
-    <t>Blake Shelton</t>
-  </si>
-  <si>
     <t>I was gonna keep it real like chill like only have a drink or two
 But it turned into a party when I started talkin' to you
 Now you're standin' in the neon lookin' like a high I wanna be onBaby it's your call, no pressure at all
@@ -4882,18 +5008,6 @@
 You don't have to keep me fallin' like this
 But it'd sure be cool if you did
 Yeah, it'd sure be cool if you did</t>
-  </si>
-  <si>
-    <t>#Beautiful</t>
-  </si>
-  <si>
-    <t>Mariah Carey Featuring Miguel</t>
-  </si>
-  <si>
-    <t>Troublemaker</t>
-  </si>
-  <si>
-    <t>Olly Murs Featuring Flo Rida</t>
   </si>
   <si>
     <t>You're a troublemaker
@@ -4955,12 +5069,6 @@
 You're troublemaker</t>
   </si>
   <si>
-    <t>Body Party</t>
-  </si>
-  <si>
-    <t>Ciara</t>
-  </si>
-  <si>
     <t>Ohh, oooh
 Ohh, ohhh
 Yeah, right thereNo, right there
@@ -5018,12 +5126,6 @@
 Ohhhh</t>
   </si>
   <si>
-    <t>Adorn</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
     <t>She's art dealer chic
 Would you be my friend, my freak?
 She's art dealer chic (Yeah)Would you be my friend, my freak?
@@ -5059,12 +5161,6 @@
 Oh, love ain't never looked so good on ya
 Oh, put it on, baby
 Let my love adorn... You</t>
-  </si>
-  <si>
-    <t>Hall Of Fame</t>
-  </si>
-  <si>
-    <t>The Script Featuring will.i.am</t>
   </si>
   <si>
     <t>Yeah, you can be the greatest
@@ -5143,12 +5239,6 @@
 Don't wait for luck
 Dedicate yourself and you gonna find yourself
 Standing in the hall of fame</t>
-  </si>
-  <si>
-    <t>Let Me Love You (Until You Learn To Love Yourself)</t>
-  </si>
-  <si>
-    <t>Ne-Yo</t>
   </si>
   <si>
     <t>Much as you blame yourself
@@ -5241,12 +5331,6 @@
 Ooh, ooh, oh</t>
   </si>
   <si>
-    <t>U.O.E.N.O.</t>
-  </si>
-  <si>
-    <t>Rocko Featuring Future &amp; Rick Ross</t>
-  </si>
-  <si>
     <t>U.O.E.N.O it
 Po high class niggas
 This shit sound crazyFly shit on me
@@ -5293,12 +5377,6 @@
 Got a bitch that speak no English, she don't even know it</t>
   </si>
   <si>
-    <t>Next To Me</t>
-  </si>
-  <si>
-    <t>Emeli Sande</t>
-  </si>
-  <si>
     <t>You won't find him drinking at the tables
 Rolling dice and staying out 'til 3
 You won't ever find him being unfaithfulYou will find him, you'll find him next to me
@@ -5336,12 +5414,6 @@
 You will find him, you'll find him next to me</t>
   </si>
   <si>
-    <t>Mama's Broken Heart</t>
-  </si>
-  <si>
-    <t>Miranda Lambert</t>
-  </si>
-  <si>
     <t>I cut my bangs with some rusty kitchen scissors
 I screamed his name 'til the neighbors called the cops
 I numbed the pain at the expense of my liverDon't know what I did next all I know I couldn't stop
@@ -5375,12 +5447,6 @@
 'Cause I raised you better gotta keep it together
 Even when you fall apart
 But this ain't my mamma's broken heart</t>
-  </si>
-  <si>
-    <t>It Goes Like This</t>
-  </si>
-  <si>
-    <t>Thomas Rhett</t>
   </si>
   <si>
     <t>Hey girl, you make me wanna write a song
@@ -5422,12 +5488,6 @@
 And it goes like hey
 And it ends with a kiss
 Yeah it goes like this</t>
-  </si>
-  <si>
-    <t>Bugatti</t>
-  </si>
-  <si>
-    <t>Ace Hood Featuring Future &amp; Rick Ross</t>
   </si>
   <si>
     <t>I come looking for you with Haitians
@@ -5476,9 +5536,6 @@
 No lou Vuittons put that red on your feet Bang</t>
   </si>
   <si>
-    <t>Wanted</t>
-  </si>
-  <si>
     <t>You know I'd fall apart without you
 I don't know how you do what you do
 'Cause everything that don't make sense about meMakes sense when I'm with you
@@ -5520,12 +5577,6 @@
 Yeah, I wanna make you feel wanted
 Baby, I wanna make you feel wanted
 You'll always be wanted</t>
-  </si>
-  <si>
-    <t>Downtown</t>
-  </si>
-  <si>
-    <t>Lady Antebellum</t>
   </si>
   <si>
     <t>Well, all the parties on the streets are talkin'
@@ -5579,12 +5630,6 @@
 I just don't get it!</t>
   </si>
   <si>
-    <t>Get Your Shine On</t>
-  </si>
-  <si>
-    <t>Florida Georgia Line</t>
-  </si>
-  <si>
     <t>Strawberry shimmer on hot lips
 Silver buckle hangin' off her hips
 I sparkle when she smilesShine down on the radio dial
@@ -5631,18 +5676,6 @@
 Chrome piece tucked in the console
 Riding high, roll up on the down low
 Baby get your shine on</t>
-  </si>
-  <si>
-    <t>#thatPOWER</t>
-  </si>
-  <si>
-    <t>will.i.am Featuring Justin Bieber</t>
-  </si>
-  <si>
-    <t>Brave</t>
-  </si>
-  <si>
-    <t>Sara Bareilles</t>
   </si>
   <si>
     <t>You can be amazing
@@ -5709,12 +5742,6 @@
 I just wanna see you</t>
   </si>
   <si>
-    <t>Let Her Go</t>
-  </si>
-  <si>
-    <t>Passenger</t>
-  </si>
-  <si>
     <t>Well, you only need the light when it's burning low
 Only miss the sun when it starts to snow
 Only know you love her when you let her goOnly know you've been high when you're feeling low
@@ -5765,12 +5792,6 @@
 And you let her go</t>
   </si>
   <si>
-    <t>Runnin' Outta Moonlight</t>
-  </si>
-  <si>
-    <t>Randy Houser</t>
-  </si>
-  <si>
     <t>Don't you worry 'bout gettin' fixed up
 When you wake up your pretty enough
 Look out your window at the cloud of dustThat's my head lights, that's my truck
@@ -5817,12 +5838,6 @@
 All I wanna do is hold you tight
 Come on, come on, come on were runnin' outta moonlight
 Whoa. Ya were runnin' outta moonlight. Whoa</t>
-  </si>
-  <si>
-    <t>I'm Different</t>
-  </si>
-  <si>
-    <t>2 Chainz</t>
   </si>
   <si>
     <t>Yeeeeah
@@ -5906,12 +5921,6 @@
 Pull up to the scene with my ceiling missing</t>
   </si>
   <si>
-    <t>Still Into You</t>
-  </si>
-  <si>
-    <t>Paramore</t>
-  </si>
-  <si>
     <t>Can't count the years on one hand
 That we've been together
 I need the other one to hold you,Make you feel, make you feel better
@@ -5964,16 +5973,268 @@
 I'm still into you
 I'm still into you</t>
   </si>
+  <si>
+    <t>Baby, you a song
+You make me wanna roll my windows down and cruise
+(Let's go!)
+I got my windows down and the radio up, get your radio up
+What up Nelly, alright
+I got my windows down and the radio up, get your radio up
+Yeah, when I first saw that bikini top on her
+She's poppin' right out of the South Georgia water
+Thought, "Oh, good Lord, she had them long tanned legs."
+Couldn't help myself so I walked up and said,
+Baby, you a song
+You make me wanna roll my windows down and cruise
+Down a back road blowin' stop signs through the middle
+Every little farm town with you
+And this brand new Chevy with a lift kit
+Would look a hell of a lot better with you up in it (come on)
+So, baby, you a song
+You make me wanna roll my windows down and cruise
+I got my windows down and the radio up, get your radio up
+Yeah, she was sippin' on Southern and singin' Marshall Tucker
+We were falling in love in the sweet heart of summer
+She hopped right up into the cab of my truck
+And said, "Fire it up! Let's go get this thing stuck!"
+Baby, you a song
+You make me wanna roll my windows down and cruise
+Down a back road blowin' stop signs through the middle
+Every little farm town with you
+And this brand new Chevy with a lift kit
+Would look a hell of a lot better with you up in it (come on)
+So, baby, you a song
+You make me wanna roll my windows down and cruise
+My windows down, my seats back,
+My music up, and we ride.
+Her legs up on my dashboard,
+And it's just the way I like.
+Hey, country girl, this country boy
+Like everything about you.
+Don't change a thing, no way.
+You stay the same, I got you.
+I like saw that, all that,
+Head to toe you all that.
+Tell ol' boy he call back,
+Send a text say, "Fall back" 'cause
+I can see you got a thing for the fast life.
+So come on, shawty, let me show you what the fast like.
+Whipping 'cross the border, Florida into Georgia.
+'Cause, baby, you a song
+And you make me wanna roll my, roll my, roll my, r-r-r-roll...
+Baby, you a song
+You make me wanna roll my windows down and cruise
+Down a back road blowing stop signs through the middle
+Every little farm town with you
+And this brand new Chevy with a lift kit
+Would look a hell of a lot better with you up in it (come on)!
+Baby, you a song
+You make me wanna roll my windows down and cruise
+I got my windows down and the radio up, get your radio up
+Get those windows down and cruise,
+I got my windows down and the radio up, get your radio up
+Get those windows down and cruise,
+I got my windows down and the radio up, get your radio up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heard about you
+You heard about me?
+Haha, yeah, Wal ha ha
+'Cause I have some issues (Wal)
+Haha, back at ya, bad girl
+Is it bad that (Wal) I never made love
+No, I never did it
+But I sure know how to (I want you to), fuck
+I'll be your bad girl (Wal), I'll prove it to you
+Can't promise that I'll be good to you
+Cause I have some issues (Wal), I won't commit
+No, not having it
+But at least I can admit that I'll be bad no to you (to you)
+Yeah, I'll be good in bed, but I'll be bad to you
+Bad that (Word) I never made love, no I never did it
+But I sure know how to fuck you
+Yeah, hold up
+Bad girls ain't no good, and the good girls ain't no fun
+Look (And the bad girls want a real nigga)
+Yeah, cause real niggas just want
+So it seems that we caught up in the wrong thing
+Got a thing for a queen who don't wanna leave
+You got a (Thing for a king, but you ain't a king)
+Seems like the ones who wrong never got a ring
+And I can see that you're (bad, no to you)
+In the literal sense, I mean the physical sense
+I mean the, oops, wait, let me give me a second
+I need a minute to vent, I'm only telling you that
+I heard you (Bad girl)
+And I'm tellin' you I could believe that
+Not the type of fella to yell or be gettin' jealous
+But we talkin' 'bout game, Wale got the league pass
+We at that bed, floor, couch, hold up
+(Loud pack boy, roll up)
+You know what what's up? (Wassup?)
+Forget it, 'cause all the bad girls always unapologetic
+Is it bad that (Wal) I never made love
+No, I never did it
+But I sure know how to fuck
+I'll be your bad girl (Wal), I'll prove it to you
+Can't promise that I'll be good to you
+Cause' I have some issues (Wal), I won't commit
+No, not having it but at least I can admit
+That I'll be bad no to you,(Uh) to you
+Yeah, I'll be good in bed (Hol' up), but I'll be bad to you
+She hurt feelings, she ain't wrong
+She work hard, she play harder
+Got a smart mouth, like to speak fly
+She don't catch feelings she too busy catching G5
+She no saint, 'cept Saint Laurent
+Gon' blaze up, take the wheel Jah
+And Rihanna got these women in their River Island's
+I'm just tryin' to take a dip ya'
+Never did terrible bullshit ya'
+Never concerned concerns, she try and live it up
+No more sucker for love, she probably duck it because
+You try to follow your gut feeling you get lost
+('Cause I have some issues) yeah and I noticed it
+You got the coldest corazon, but warmest skin
+You froze with it, you try and play Sub Zero I be Scorpion
+Get over here today
+Smellin' like Jean Paul Gaultier
+Got about three friends, she don't even tweet them
+Ain't no IG, but she follow K
+Yeah we at that bed, floor, couch, hold up
+(Loud pack boy, roll up)
+You know what what's up? (Wassup?)
+Forget it, only bad bitches always unapologetic
+Is it bad that (Wal) I never made love
+No, I never did it (Wooo)
+But I sure know how to fuck
+I'll be your bad girl (Wal), I'll prove it to you
+Can't promise that I'll be good to you
+Cause' I have some issues (Wal), I won't commit
+No, not having it
+But at least I can admit that I'll be bad no to you (to you)
+Yeah, I'll be good in bed, but I'll be bad to you</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey!
+Hey!
+Hey!
+I don't like walking around this old and empty house
+So hold my hand, I'll walk with you, my dear
+The stairs creak as you sleep, it's keeping me awake
+It's the house telling you to close your eyes
+And some days I can't even dress myself
+It's killing me to see you this way
+'Cause though the truth may vary this
+Ship will carry our bodies safe to shore
+Hey!
+Hey!
+Hey!
+There's an old voice in my head that's holding me back
+Well, tell her that I miss our little talks
+Soon it will be over, and buried with our past
+We used to play outside when we were young and full of life and full of love
+Some days I don't know if I am wrong or right
+Your mind is playing tricks on you, my dear
+'Cause though the truth may vary this
+Ship will carry our bodies safe to shore
+Hey!
+Don't listen to a word I say
+Hey!
+The screams all sound the same
+Hey!
+And though the truth may vary this
+Ship will carry our bodies safe to shore
+Hey!
+Hey!
+You're gone, gone, gone away
+I watched you disappear
+All that's left is a ghost of you
+Now we're torn, torn, torn apart
+There's nothing we can do
+Just let me go, we'll meet again soon
+Now wait, wait, wait for me
+Please hang around
+I'll see you when I fall asleep
+Hey!
+Don't listen to a word I say
+Hey!
+The screams all sound the same
+Hey!
+And though the truth may vary this
+Ship will carry our bodies safe to shore
+Don't listen to a word I say
+Hey!
+The screams all sound the same
+Hey!
+Though the truth may vary this
+Ship will carry our bodies safe to shore
+Though the truth may vary this
+Ship will carry our bodies safe to shore
+Though the truth may vary this
+Ship will carry our bodies safe to shore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ah, ah, you're beautiful
+Ah, ah, you're beautiful
+Hop on the back of my bike
+Let the good wind blow through your hair
+With an ass like that
+And a smile so bright
+Oh, you're killing me
+You know it ain't fair
+Ride on through the middle of the night
+Let the moonlight kiss your skin
+When you dance like that
+Your jeans so tight
+Oh, you're killing me
+Baby, do it again
+You're beautiful
+And your mind is ing beautiful
+And I can't pretend
+That that doesn't mean a thing to me, to me, yeah
+You're beautiful
+Good Lord, you're ing beautiful
+And I can't pretend
+That that doesn't mean a thing to me, to me, yeah, yeah
+I like when you run red lights
+Don't stop 'til you thrill me
+Oh, how you thrill me
+Always in control
+How you do it, I don't know
+But I don't care
+Take me anywhere
+'Cause it's beautiful
+Ooh, you make me feel undressable
+And I can't pretend
+That that doesn't mean a thing to me, to me, ooh
+You're beautiful
+And your mind is ing beautiful
+And I can't pretend
+That that doesn't mean a thing to me, to me, yes
+You're beautiful
+Good Lord, you're fucking beautiful
+And I can't pretend
+That that doesn't mean a thing to me, to me, yeah, yeah
+Ah, ah, you're beautiful,
+Ah, ah, you're beautiful,
+Ah, ah, you're beautiful,
+Ah, ah, you're beautiful</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5981,8 +6242,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5994,7 +6262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6002,24 +6270,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6061,7 +6355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6093,9 +6387,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6127,6 +6439,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6302,1090 +6632,1700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B52" t="s">
         <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" t="s">
-        <v>146</v>
       </c>
       <c r="C52" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+      <c r="E52">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
         <v>148</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
         <v>149</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="D55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E55">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
         <v>151</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
         <v>152</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D57" t="s">
+        <v>242</v>
+      </c>
+      <c r="E57">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="D58" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
         <v>154</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D59" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E59">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
         <v>155</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E60">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" t="s">
+        <v>244</v>
+      </c>
+      <c r="E61">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="D63" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
         <v>157</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D64" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
         <v>158</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D65" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E65">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="D66" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
         <v>160</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+      <c r="E67">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
         <v>161</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D68" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="D69" t="s">
+        <v>251</v>
+      </c>
+      <c r="E69">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
         <v>163</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D73" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="D74" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
         <v>166</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D75" t="s">
+        <v>257</v>
+      </c>
+      <c r="E75">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="E77">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
         <v>168</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D79" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="D80" t="s">
+        <v>261</v>
+      </c>
+      <c r="E80">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
         <v>170</v>
       </c>
-      <c r="B61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D81" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="D82" t="s">
+        <v>262</v>
+      </c>
+      <c r="E82">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
         <v>172</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D83" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="D84" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
         <v>174</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D85" t="s">
+        <v>265</v>
+      </c>
+      <c r="E85">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
         <v>175</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="D87" t="s">
+        <v>267</v>
+      </c>
+      <c r="E87">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
         <v>177</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D88" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
         <v>178</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D89" t="s">
+        <v>269</v>
+      </c>
+      <c r="E89">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
         <v>180</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D91" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92" t="s">
+        <v>272</v>
+      </c>
+      <c r="E92">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="D93" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
         <v>182</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D94" t="s">
+        <v>274</v>
+      </c>
+      <c r="E94">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
         <v>183</v>
       </c>
-      <c r="C66" t="s">
+      <c r="E95">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="D96" t="s">
+        <v>275</v>
+      </c>
+      <c r="E96">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
         <v>185</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D97" t="s">
+        <v>276</v>
+      </c>
+      <c r="E97">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
         <v>186</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D98" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="D99" t="s">
+        <v>278</v>
+      </c>
+      <c r="E99">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
         <v>188</v>
       </c>
-      <c r="B68" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>194</v>
-      </c>
-      <c r="B70" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" t="s">
-        <v>43</v>
-      </c>
-      <c r="C71" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>201</v>
-      </c>
-      <c r="B73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>204</v>
-      </c>
-      <c r="B74" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>207</v>
-      </c>
-      <c r="B75" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>210</v>
-      </c>
-      <c r="B76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>212</v>
-      </c>
-      <c r="B77" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="D100" t="s">
+        <v>279</v>
+      </c>
+      <c r="E100">
         <v>216</v>
       </c>
-      <c r="B79" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>219</v>
-      </c>
-      <c r="B80" t="s">
-        <v>220</v>
-      </c>
-      <c r="C80" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>222</v>
-      </c>
-      <c r="B81" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>224</v>
-      </c>
-      <c r="B82" t="s">
-        <v>225</v>
-      </c>
-      <c r="C82" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>227</v>
-      </c>
-      <c r="B83" t="s">
-        <v>228</v>
-      </c>
-      <c r="C83" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>230</v>
-      </c>
-      <c r="B84" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>233</v>
-      </c>
-      <c r="B85" t="s">
-        <v>234</v>
-      </c>
-      <c r="C85" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>236</v>
-      </c>
-      <c r="B86" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>239</v>
-      </c>
-      <c r="B87" t="s">
-        <v>240</v>
-      </c>
-      <c r="C87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>242</v>
-      </c>
-      <c r="B88" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>245</v>
-      </c>
-      <c r="B89" t="s">
-        <v>246</v>
-      </c>
-      <c r="C89" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>248</v>
-      </c>
-      <c r="B90" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>251</v>
-      </c>
-      <c r="B91" t="s">
-        <v>252</v>
-      </c>
-      <c r="C91" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>254</v>
-      </c>
-      <c r="B92" t="s">
-        <v>199</v>
-      </c>
-      <c r="C92" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>256</v>
-      </c>
-      <c r="B93" t="s">
-        <v>257</v>
-      </c>
-      <c r="C93" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>259</v>
-      </c>
-      <c r="B94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C94" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>262</v>
-      </c>
-      <c r="B95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>264</v>
-      </c>
-      <c r="B96" t="s">
-        <v>265</v>
-      </c>
-      <c r="C96" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>267</v>
-      </c>
-      <c r="B97" t="s">
-        <v>268</v>
-      </c>
-      <c r="C97" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>270</v>
-      </c>
-      <c r="B98" t="s">
-        <v>271</v>
-      </c>
-      <c r="C98" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>273</v>
-      </c>
-      <c r="B99" t="s">
-        <v>274</v>
-      </c>
-      <c r="C99" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>276</v>
-      </c>
-      <c r="B100" t="s">
-        <v>277</v>
-      </c>
-      <c r="C100" t="s">
-        <v>278</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>